--- a/dcp_spreadsheets/ImmuneLandscapeccRCC_metadata_30-01-2023.xlsx
+++ b/dcp_spreadsheets/ImmuneLandscapeccRCC_metadata_30-01-2023.xlsx
@@ -33,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -43,28 +43,17 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <i val="1"/>
-      <color rgb="00808080"/>
-      <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D0D0D0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -72,19 +61,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -457,110 +448,105 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="39" customWidth="1" min="2" max="2"/>
-    <col width="34" customWidth="1" min="3" max="3"/>
-    <col width="40" customWidth="1" min="4" max="4"/>
-    <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="30" customWidth="1" min="6" max="6"/>
-    <col width="28" customWidth="1" min="7" max="7"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>project.uuid</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Project label (Required)</t>
+          <t>PROJECT LABEL (Required)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Project title (Required)</t>
+          <t>PROJECT TITLE (Required)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Project description (Required)</t>
+          <t>PROJECT DESCRIPTION (Required)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Supplementary link(s)</t>
+          <t>SUPPLEMENTARY LINK(S)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>INSDC study accession</t>
+          <t>INSDC STUDY ACCESSION</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Estimated cell count</t>
+          <t>ESTIMATED CELL COUNT</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
         <is>
           <t>A short name for the project.</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>An official title for the project.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A longer description of the project which includes research goals and experimental approach.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>External link(s) pointing to code, supplementary data files, or analysis files associated with the project which will not be uploaded.</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>An International Nucleotide Sequence Database Collaboration (INSDC) study accession.</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>An estimated number of cells in this project</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr"/>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Project label is a short label by which you refer to the project. It should have no spaces and should be fewer than 50 characters. For example: CoolOrganProject.</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Project title should be fewer than 30 words, such as a title of a grant proposal or a publication. For example: Study of single cells in the human body.</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Project description should be fewer than 300 words, such as an abstract from a grant application or publication.</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>For example: https://github.com/czbiohub/tabula-muris; http://celltag.org/</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Enter accession if study has been archived. Accession can be from the DDBJ, NCBI, or EMBL-EBI and must start with PRJD, PRJN, or PRJE, respectively. For example: PRJNA000000</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>For example: 10000; 2100000</t>
         </is>
@@ -603,12 +589,18 @@
         </is>
       </c>
     </row>
-    <row r="5" customFormat="1" s="3">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -665,134 +657,127 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-    <col width="47" customWidth="1" min="3" max="3"/>
-    <col width="54" customWidth="1" min="4" max="4"/>
-    <col width="31" customWidth="1" min="5" max="5"/>
-    <col width="35" customWidth="1" min="6" max="6"/>
-    <col width="41" customWidth="1" min="7" max="7"/>
-    <col width="32" customWidth="1" min="8" max="8"/>
-    <col width="27" customWidth="1" min="9" max="9"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>enrichment protocol.uuid</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Protocol ID (Required)</t>
+          <t>ENRICHMENT PROTOCOL ID (Required)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Protocol name</t>
+          <t>ENRICHMENT PROTOCOL NAME</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Protocol description</t>
+          <t>ENRICHMENT PROTOCOL DESCRIPTION</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Process type (Required)</t>
+          <t>ENRICHMENT METHOD (Required)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Process type ontology ID</t>
+          <t>ENRICHMENT METHOD ONTOLOGY ID</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Process type ontology label</t>
+          <t>ENRICHMENT METHOD ONTOLOGY LABEL ONTOLOGY ID</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Maximum size selected</t>
+          <t>MAXIMUM SIZE SELECTED</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Markers</t>
+          <t>MARKERS</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>A short name for the protocol.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A general description of the protocol.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>The name of a process type being used.</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Maximum cell or organelle size passing selection, in microns.</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>A list of markers used to enrich for or against certain cells.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr"/>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>For example: enzymatic dissociation; blood draw</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>For example: EFO:0009128; EFO:0009121</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>For example: enzymatic dissociation; blood draw</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>For example: 90</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Format as a space-delimited list of markers with +/- where + means enriched for and - means enriched against. For example: CD4+ CD8-; HLA-G+</t>
         </is>
@@ -845,12 +830,20 @@
         </is>
       </c>
     </row>
-    <row r="5" customFormat="1" s="3">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -888,6 +881,8 @@
           <t>density gradient centrifugation</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -930,6 +925,7 @@
           <t>100.0</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -967,6 +963,7 @@
           <t>fluorescence-activated cell sorting</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>DAPI-</t>
@@ -991,358 +988,337 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="33" customWidth="1" min="1" max="1"/>
-    <col width="54" customWidth="1" min="2" max="2"/>
-    <col width="56" customWidth="1" min="3" max="3"/>
-    <col width="63" customWidth="1" min="4" max="4"/>
-    <col width="54" customWidth="1" min="5" max="5"/>
-    <col width="56" customWidth="1" min="6" max="6"/>
-    <col width="56" customWidth="1" min="7" max="7"/>
-    <col width="61" customWidth="1" min="8" max="8"/>
-    <col width="65" customWidth="1" min="9" max="9"/>
-    <col width="71" customWidth="1" min="10" max="10"/>
-    <col width="48" customWidth="1" min="11" max="11"/>
-    <col width="61" customWidth="1" min="12" max="12"/>
-    <col width="65" customWidth="1" min="13" max="13"/>
-    <col width="71" customWidth="1" min="14" max="14"/>
-    <col width="37" customWidth="1" min="15" max="15"/>
-    <col width="35" customWidth="1" min="16" max="16"/>
-    <col width="35" customWidth="1" min="17" max="17"/>
-    <col width="53" customWidth="1" min="18" max="18"/>
-    <col width="55" customWidth="1" min="19" max="19"/>
-    <col width="55" customWidth="1" min="20" max="20"/>
-    <col width="67" customWidth="1" min="21" max="21"/>
-    <col width="71" customWidth="1" min="22" max="22"/>
-    <col width="77" customWidth="1" min="23" max="23"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>library preparation protocol.uuid</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Protocol ID (Required)</t>
+          <t>LIBRARY PREPARATION PROTOCOL ID (Required)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Protocol name</t>
+          <t>LIBRARY PREPARATION PROTOCOL NAME</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Protocol description</t>
+          <t>LIBRARY PREPARATION PROTOCOL DESCRIPTION</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Barcode-containing read (Required)</t>
+          <t>CELL BARCODE - BARCODE-CONTAINING READ (Required)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Barcode offset (Required)</t>
+          <t>CELL BARCODE - BARCODE OFFSET (Required)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Barcode length (Required)</t>
+          <t>CELL BARCODE - BARCODE LENGTH (Required)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Biological macromolecule (Required)</t>
+          <t>INPUT NUCLEIC ACID MOLECULE (Required)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Biological macromolecule ontology ID</t>
+          <t>INPUT NUCLEIC ACID MOLECULE ONTOLOGY ID</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Biological macromolecule ontology label</t>
+          <t>INPUT NUCLEIC ACID MOLECULE ONTOLOGY LABEL ONTOLOGY ID</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Nucleic acid source (Required)</t>
+          <t>NUCLEIC ACID SOURCE (Required)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Library construction (Required)</t>
+          <t>LIBRARY CONSTRUCTION METHOD (Required)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Library construction ontology ID</t>
+          <t>LIBRARY CONSTRUCTION METHOD ONTOLOGY ID</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Library construction ontology label</t>
+          <t>LIBRARY CONSTRUCTION METHOD ONTOLOGY LABEL ONTOLOGY ID</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>End bias (Required)</t>
+          <t>END BIAS (Required)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Primer</t>
+          <t>PRIMER</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Strand (Required)</t>
+          <t>STRAND (Required)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Barcode-containing read (Required)</t>
+          <t>UMI BARCODE - BARCODE-CONTAINING READ (Required)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Barcode offset (Required)</t>
+          <t>UMI BARCODE - BARCODE OFFSET (Required)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Barcode length (Required)</t>
+          <t>UMI BARCODE - BARCODE LENGTH (Required)</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Library amplification (Required)</t>
+          <t>CDNA LIBRARY AMPLIFICATION METHOD</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Library amplification ontology ID</t>
+          <t>CDNA LIBRARY AMPLIFICATION METHOD ONTOLOGY ID</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Library amplification ontology label</t>
+          <t>CDNA LIBRARY AMPLIFICATION METHOD ONTOLOGY LABEL ONTOLOGY ID</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>A short name for the protocol.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A general description of the protocol.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>The read in which the barcode is found.</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The 0-based offset of start of barcode in read.</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Length of barcode in nucleotides.</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>The name of the biological macromolecule being used.</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Source cells or organelles from which nucleic acid molecules were collected.</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>The name of a library construction approach being used.</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>The type of tag or end bias the library has.</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>Primer used for cDNA synthesis from RNA.</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Library strandedness.</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>The read in which the barcode is found.</t>
         </is>
       </c>
-      <c r="S2" s="2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>The 0-based offset of start of barcode in read.</t>
         </is>
       </c>
-      <c r="T2" s="2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Length of barcode in nucleotides.</t>
         </is>
       </c>
-      <c r="U2" s="2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>The name of a library amplification approach being used.</t>
         </is>
       </c>
-      <c r="V2" s="2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="W2" s="2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr"/>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>For example: Should be one of: Read 1, Read 2, i7 Index, or i5 Index.</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Enter 0 for beginning of read.</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>For example: 28</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>For example: polyA RNA; mRNA</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>For example: OBI:0000869; CHEBI:33699</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>For example: polyA RNA; messenger RNA</t>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>For example: Should be one of: single cell, bulk cell, single nucleus, bulk nuclei, or mitochondria.</t>
         </is>
       </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>For example: 10X v2 sequencing; Smart-seq2</t>
         </is>
       </c>
-      <c r="M3" s="2" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>For example: EFO:0009310; EFO:0008931</t>
         </is>
       </c>
-      <c r="N3" s="2" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>For example: 10X v2 sequencing; Smart-seq2</t>
         </is>
       </c>
-      <c r="O3" s="2" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Enter 'full length' if there is no tag or end bias. For example: Should be one of: 3 prime tag, 3 prime end bias, 5 prime tag, 5 prime end bias, or full length.</t>
         </is>
       </c>
-      <c r="P3" s="2" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>For example: Should be one of: poly-dT, or random.</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Enter 'first' if sequenced molecule is only the strand generated during first strand synthesis. Enter 'second' if sequenced molecule is only the strand generated during second strand synthesis. Enter 'unstranded' if both strands were sequenced. For example: Should be one of: first, second, unstranded, or not provided.</t>
         </is>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>For example: Should be one of: Read 1, Read 2, i7 Index, or i5 Index.</t>
         </is>
       </c>
-      <c r="S3" s="2" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Enter 0 for beginning of read.</t>
         </is>
       </c>
-      <c r="T3" s="2" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>For example: 28</t>
         </is>
       </c>
-      <c r="U3" s="2" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>For example: PCR; in vitro transcription</t>
         </is>
       </c>
-      <c r="V3" s="2" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>For example: OBI:0000415; EFO:0009013</t>
         </is>
       </c>
-      <c r="W3" s="2" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>For example: PCR; in vitro transcription</t>
         </is>
@@ -1465,12 +1441,34 @@
         </is>
       </c>
     </row>
-    <row r="5" customFormat="1" s="3">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1724,198 +1722,187 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-    <col width="47" customWidth="1" min="3" max="3"/>
-    <col width="54" customWidth="1" min="4" max="4"/>
-    <col width="54" customWidth="1" min="5" max="5"/>
-    <col width="58" customWidth="1" min="6" max="6"/>
-    <col width="64" customWidth="1" min="7" max="7"/>
-    <col width="30" customWidth="1" min="8" max="8"/>
-    <col width="31" customWidth="1" min="9" max="9"/>
-    <col width="35" customWidth="1" min="10" max="10"/>
-    <col width="41" customWidth="1" min="11" max="11"/>
-    <col width="36" customWidth="1" min="12" max="12"/>
-    <col width="44" customWidth="1" min="13" max="13"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>sequencing protocol.uuid</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Protocol ID (Required)</t>
+          <t>SEQUENCING PROTOCOL ID (Required)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Protocol name</t>
+          <t>SEQUENCING PROTOCOL NAME</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Protocol description</t>
+          <t>SEQUENCING PROTOCOL DESCRIPTION</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Instrument (Required)</t>
+          <t>INSTRUMENT MANUFACTURER AND MODEL (Required)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Instrument ontology ID</t>
+          <t>INSTRUMENT MANUFACTURER AND MODEL ONTOLOGY ID</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Instrument ontology label</t>
+          <t>INSTRUMENT MANUFACTURER AND MODEL ONTOLOGY LABEL ONTOLOGY ID</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Paired end (Required)</t>
+          <t>PAIRED END (Required)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Sequencing approach (Required)</t>
+          <t>SEQUENCING METHOD (Required)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Sequencing approach ontology ID</t>
+          <t>SEQUENCING METHOD ONTOLOGY ID</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Sequencing approach ontology label</t>
+          <t>SEQUENCING METHOD ONTOLOGY LABEL ONTOLOGY ID</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Fastq creation method</t>
+          <t>FASTQ CREATION METHOD</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Fastq creation method version</t>
+          <t>FASTQ CREATION METHOD VERSION</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>A short name for the protocol.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A general description of the protocol.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>The full name of the instrument used.</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Whether the sequenced molecule was sequenced from both ends.</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>The name of a sequencing approach being used.</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Method used for the generation of fastq files from bcl files.</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Version of the program used for fastq generation.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr"/>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>For example: Illumina HiSeq 2500; ONT MinION</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>For example: EFO:0008565; EFO:0008632</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>For example: Illumina HiSeq 2500; ONT MinION</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>If 3' 10x v2 was used, enter no. For example: Should be one of: yes, or no.</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>For example: tag based single cell RNA sequencing; full length single cell RNA sequencing</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>For example: EFO:0008440; EFO:0008441</t>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>For example: tag based single cell RNA sequencing; full length single cell RNA sequencing</t>
         </is>
       </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>For example: Cellranger mkfastq; bcl2fastq2</t>
         </is>
       </c>
-      <c r="M3" s="2" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>For example: Cellranger 2.1.1; v2.20</t>
         </is>
@@ -1988,12 +1975,24 @@
         </is>
       </c>
     </row>
-    <row r="5" customFormat="1" s="3">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2147,134 +2146,127 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="43" customWidth="1" min="2" max="2"/>
-    <col width="45" customWidth="1" min="3" max="3"/>
-    <col width="52" customWidth="1" min="4" max="4"/>
-    <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="31" customWidth="1" min="6" max="6"/>
-    <col width="37" customWidth="1" min="7" max="7"/>
-    <col width="38" customWidth="1" min="8" max="8"/>
-    <col width="43" customWidth="1" min="9" max="9"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>analysis protocol.uuid</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Protocol ID (Required)</t>
+          <t>ANALYSIS PROTOCOL ID</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Protocol name</t>
+          <t>ANALYSIS PROTOCOL NAME</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Protocol description</t>
+          <t>ANALYSIS PROTOCOL DESCRIPTION</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Process type (Required)</t>
+          <t>ANALYSIS PROTOCOL TYPE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Process type ontology ID</t>
+          <t>ANALYSIS PROTOCOL TYPE ONTOLOGY ID</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Process type ontology label</t>
+          <t>ANALYSIS PROTOCOL TYPE ONTOLOGY ID ONTOLOGY LABEL</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Computational method</t>
+          <t>COMPUTATIONAL METHOD</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Derivation process</t>
+          <t>DERIVATION PROCESS</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>A short name for the protocol.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A general description of the protocol.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>The name of a process type being used.</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>A URI to a versioned workflow and versioned execution environment in a GA4GH-compliant repository.</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Type of computational tool used in generating the matrix object.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr"/>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>For example: enzymatic dissociation; blood draw</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>For example: EFO:0009128; EFO:0009121</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>For example: enzymatic dissociation; blood draw</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>For example: SmartSeq2SingleCell; 10x</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Should be one of: alignment, quantification, peak calling, peak annotation, gene filtering, cell filtering, merging, cell calling, ambient RNA correction, doublet removal, batch correction, depth normalization, other.</t>
         </is>
@@ -2327,12 +2319,20 @@
         </is>
       </c>
     </row>
-    <row r="5" customFormat="1" s="3">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2446,262 +2446,260 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="33" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="48" customWidth="1" min="4" max="4"/>
-    <col width="52" customWidth="1" min="5" max="5"/>
-    <col width="58" customWidth="1" min="6" max="6"/>
-    <col width="35" customWidth="1" min="7" max="7"/>
-    <col width="24" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="34" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="51" customWidth="1" min="12" max="12"/>
-    <col width="31" customWidth="1" min="13" max="13"/>
-    <col width="45" customWidth="1" min="14" max="14"/>
-    <col width="24" customWidth="1" min="15" max="15"/>
-    <col width="54" customWidth="1" min="16" max="16"/>
-    <col width="33" customWidth="1" min="17" max="17"/>
-    <col width="47" customWidth="1" min="18" max="18"/>
-    <col width="20" customWidth="1" min="19" max="19"/>
-    <col width="24" customWidth="1" min="20" max="20"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>sequence file.uuid</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>File name (Required)</t>
+          <t>FILE NAME (Required)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>File format (Required)</t>
+          <t>FILE FORMAT (Required)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Content description (Required)</t>
+          <t>CONTENT DESCRIPTION</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Content description ontology ID</t>
+          <t>CONTENT DESCRIPTION ONTOLOGY ID</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Content description ontology label</t>
+          <t>CONTENT DESCRIPTION ONTOLOGY LABEL ONTOLOGY ID</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>File source</t>
+          <t>FILE SOURCE</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Read index (Required)</t>
+          <t>READ INDEX (Required)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Read length</t>
+          <t>READ LENGTH</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>INSDC run accession</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
+          <t>INSDC RUN ACCESSION</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>process.uuid</t>
+        </is>
+      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>INSDC experiment accession</t>
+          <t>INSDC EXPERIMENT ACCESSION (Required)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Process ID</t>
+          <t>PROCESS ID (Required)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Protocol ID</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr"/>
+          <t>SEQUENCING PROTOCOL ID (Required)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>sequencing protocol.uuid</t>
+        </is>
+      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Protocol ID</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr"/>
+          <t>LIBRARY PREPARATION PROTOCOL ID (Required)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>library preparation protocol.uuid</t>
+        </is>
+      </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Biomaterial ID</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr"/>
+          <t>INPUT CELL SUSPENSION ID (Required)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cell suspension.uuid</t>
+        </is>
+      </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Lane index</t>
+          <t>LANE INDEX</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
         <is>
           <t>The name of the file.</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>The format of the file.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>General description of the contents of the file.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>The source of the file. This is typically an organisation, repository, person or dedicated process.</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>The sequencing read this file represents.</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>The length of a sequenced read in this file, in nucleotides.</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>An International Nucleotide Sequence Database Collaboration (INSDC) run accession.</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
         <is>
           <t>An International Nucleotide Sequence Database Collaboration (INSDC) experiment accession.</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>A unique ID for the process.</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr"/>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>A unique ID for the biomaterial.</t>
         </is>
       </c>
-      <c r="S2" s="2" t="inlineStr"/>
-      <c r="T2" s="2" t="inlineStr">
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
         <is>
           <t>The lane that this file was sequenced from.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr"/>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Include the file extension in the file name. For example: R1.fastq.gz; codebook.json</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Indicate the full file extension including compression extensions. For example: fastq.gz; tif</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>For example: DNA sequence (raw); Sequence alignment</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>For example: data:3497; data:0863</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>For example: DNA sequence (raw); Sequence alignment</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Should be one of: DCP/2 Analysis, Contributor, ArrayExpress, HCA Release, GEO, SCEA, SCP, DCP/1 Matrix Service, LungMAP, Zenodo, Publication, DCP/2 Ingest For example: GEO; Contributor</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>If a sequencing experiment is single-end, enter 'read1'. For example: Should be one of: read1, read2, index1, index2</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>For example: 51</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Enter accession if run has been archived. Accession can be from the DDBJ, NCBI, or EMBL-EBI and must start with DRR, SRR, or ERR, respectively. For example: SRR0000000</t>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
         <is>
           <t>Enter accession if experiment has been archived. Accession can be from the DDBJ, NCBI, or EMBL-EBI and must start with DRX, SRX, or ERX, respecitvely. For example: SRX0000000</t>
         </is>
       </c>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
         </is>
       </c>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr">
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="inlineStr"/>
-      <c r="R3" s="2" t="inlineStr"/>
-      <c r="S3" s="2" t="inlineStr"/>
-      <c r="T3" s="2" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
         <is>
           <t>For example: 1</t>
         </is>
@@ -2809,12 +2807,31 @@
         </is>
       </c>
     </row>
-    <row r="5" customFormat="1" s="3">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2912,6 +2929,7 @@
           <t>3da2f487-684f-4dc4-a450-c7ee4a921a52</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3009,6 +3027,7 @@
           <t>3da2f487-684f-4dc4-a450-c7ee4a921a52</t>
         </is>
       </c>
+      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3106,6 +3125,7 @@
           <t>f8e9790d-b5e3-43b2-bc3b-fba543bcfe74</t>
         </is>
       </c>
+      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3203,6 +3223,7 @@
           <t>f8e9790d-b5e3-43b2-bc3b-fba543bcfe74</t>
         </is>
       </c>
+      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3300,6 +3321,7 @@
           <t>a9ec4e17-121b-4381-82b8-5f1203b8b95a</t>
         </is>
       </c>
+      <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3397,6 +3419,7 @@
           <t>a9ec4e17-121b-4381-82b8-5f1203b8b95a</t>
         </is>
       </c>
+      <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3494,6 +3517,7 @@
           <t>61bf7697-07f1-4e04-a141-58e6a1b0c588</t>
         </is>
       </c>
+      <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3591,6 +3615,7 @@
           <t>61bf7697-07f1-4e04-a141-58e6a1b0c588</t>
         </is>
       </c>
+      <c r="T13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10216,6 +10241,7 @@
           <t>fee383a2-fcae-49ca-b744-65a6e8149744</t>
         </is>
       </c>
+      <c r="T78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10313,6 +10339,7 @@
           <t>fee383a2-fcae-49ca-b744-65a6e8149744</t>
         </is>
       </c>
+      <c r="T79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -18570,6 +18597,7 @@
           <t>1809bee6-b27e-4ac7-9694-ede0ff8fe3dc</t>
         </is>
       </c>
+      <c r="T160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -18667,6 +18695,7 @@
           <t>1809bee6-b27e-4ac7-9694-ede0ff8fe3dc</t>
         </is>
       </c>
+      <c r="T161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -24068,6 +24097,7 @@
           <t>03315a82-f805-4573-ae1b-84b306a8c3df</t>
         </is>
       </c>
+      <c r="T214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -24165,6 +24195,7 @@
           <t>03315a82-f805-4573-ae1b-84b306a8c3df</t>
         </is>
       </c>
+      <c r="T215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -24670,6 +24701,7 @@
           <t>c4fabc37-113d-4bd5-a930-2bebd4a594fa</t>
         </is>
       </c>
+      <c r="T220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -24767,6 +24799,7 @@
           <t>c4fabc37-113d-4bd5-a930-2bebd4a594fa</t>
         </is>
       </c>
+      <c r="T221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -24864,6 +24897,7 @@
           <t>70572629-5cab-4931-b029-26eab92d6f36</t>
         </is>
       </c>
+      <c r="T222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -24961,6 +24995,7 @@
           <t>70572629-5cab-4931-b029-26eab92d6f36</t>
         </is>
       </c>
+      <c r="T223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -25058,6 +25093,7 @@
           <t>45ae65f1-d446-4770-98a3-bbfa8f47d80b</t>
         </is>
       </c>
+      <c r="T224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -25155,6 +25191,7 @@
           <t>45ae65f1-d446-4770-98a3-bbfa8f47d80b</t>
         </is>
       </c>
+      <c r="T225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -25252,6 +25289,7 @@
           <t>fbc41aa8-d794-471a-9748-6cea196be8e1</t>
         </is>
       </c>
+      <c r="T226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -25349,6 +25387,7 @@
           <t>fbc41aa8-d794-471a-9748-6cea196be8e1</t>
         </is>
       </c>
+      <c r="T227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -25446,6 +25485,7 @@
           <t>3c568b78-86ce-4b93-8166-8903528e2f26</t>
         </is>
       </c>
+      <c r="T228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -25543,6 +25583,7 @@
           <t>3c568b78-86ce-4b93-8166-8903528e2f26</t>
         </is>
       </c>
+      <c r="T229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -25640,6 +25681,7 @@
           <t>57eb0f91-db61-471d-979d-1f106b2b6a4e</t>
         </is>
       </c>
+      <c r="T230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -25737,6 +25779,7 @@
           <t>57eb0f91-db61-471d-979d-1f106b2b6a4e</t>
         </is>
       </c>
+      <c r="T231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -25834,6 +25877,7 @@
           <t>98da8ec1-382e-4497-8628-f99b320cf78c</t>
         </is>
       </c>
+      <c r="T232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -25931,6 +25975,7 @@
           <t>98da8ec1-382e-4497-8628-f99b320cf78c</t>
         </is>
       </c>
+      <c r="T233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -26028,6 +26073,7 @@
           <t>4934ddbb-8319-4d2b-ae5e-857854fcbfd5</t>
         </is>
       </c>
+      <c r="T234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -26125,6 +26171,7 @@
           <t>4934ddbb-8319-4d2b-ae5e-857854fcbfd5</t>
         </is>
       </c>
+      <c r="T235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -26222,6 +26269,7 @@
           <t>02baef9a-34c7-4609-8b8a-c76dd53f4d4c</t>
         </is>
       </c>
+      <c r="T236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -26319,6 +26367,7 @@
           <t>02baef9a-34c7-4609-8b8a-c76dd53f4d4c</t>
         </is>
       </c>
+      <c r="T237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -26416,6 +26465,7 @@
           <t>5087d8a5-11d6-4a69-bc9e-139880572302</t>
         </is>
       </c>
+      <c r="T238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -26513,6 +26563,7 @@
           <t>5087d8a5-11d6-4a69-bc9e-139880572302</t>
         </is>
       </c>
+      <c r="T239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -26610,6 +26661,7 @@
           <t>83243f3d-3575-420d-93a4-7f0c441bcf7b</t>
         </is>
       </c>
+      <c r="T240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -26707,6 +26759,7 @@
           <t>83243f3d-3575-420d-93a4-7f0c441bcf7b</t>
         </is>
       </c>
+      <c r="T241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -26804,6 +26857,7 @@
           <t>314cbe38-231f-4f0c-aae7-d0bff30462f4</t>
         </is>
       </c>
+      <c r="T242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -26901,6 +26955,7 @@
           <t>314cbe38-231f-4f0c-aae7-d0bff30462f4</t>
         </is>
       </c>
+      <c r="T243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -26998,6 +27053,7 @@
           <t>ebb56676-8f34-4a15-a408-a9d8f45e68d4</t>
         </is>
       </c>
+      <c r="T244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -27095,6 +27151,7 @@
           <t>ebb56676-8f34-4a15-a408-a9d8f45e68d4</t>
         </is>
       </c>
+      <c r="T245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -27192,6 +27249,7 @@
           <t>548a0a3f-be62-41e0-a646-a37c2026419b</t>
         </is>
       </c>
+      <c r="T246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -27289,6 +27347,7 @@
           <t>548a0a3f-be62-41e0-a646-a37c2026419b</t>
         </is>
       </c>
+      <c r="T247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -27386,6 +27445,7 @@
           <t>9da2f577-2e5a-483a-b8e8-62770b447398</t>
         </is>
       </c>
+      <c r="T248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -27483,6 +27543,7 @@
           <t>9da2f577-2e5a-483a-b8e8-62770b447398</t>
         </is>
       </c>
+      <c r="T249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -27580,6 +27641,7 @@
           <t>d76bb898-6a2e-46e1-b9d1-ea03ebfd14af</t>
         </is>
       </c>
+      <c r="T250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -27677,6 +27739,7 @@
           <t>d76bb898-6a2e-46e1-b9d1-ea03ebfd14af</t>
         </is>
       </c>
+      <c r="T251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -27774,6 +27837,7 @@
           <t>78f0230c-5d33-4b5c-b9fa-5888903840e9</t>
         </is>
       </c>
+      <c r="T252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -27871,6 +27935,7 @@
           <t>78f0230c-5d33-4b5c-b9fa-5888903840e9</t>
         </is>
       </c>
+      <c r="T253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -27968,6 +28033,7 @@
           <t>8dfa81e0-184d-4420-8eaf-0ef1206f373f</t>
         </is>
       </c>
+      <c r="T254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -28065,6 +28131,7 @@
           <t>8dfa81e0-184d-4420-8eaf-0ef1206f373f</t>
         </is>
       </c>
+      <c r="T255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -28162,6 +28229,7 @@
           <t>e1cbb61c-c7e7-4af5-ae32-fab31c1bff60</t>
         </is>
       </c>
+      <c r="T256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -28259,6 +28327,7 @@
           <t>e1cbb61c-c7e7-4af5-ae32-fab31c1bff60</t>
         </is>
       </c>
+      <c r="T257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -28356,6 +28425,7 @@
           <t>5d6e45c2-f3e4-4c2b-a4de-5219df7d3d49</t>
         </is>
       </c>
+      <c r="T258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -28453,6 +28523,7 @@
           <t>5d6e45c2-f3e4-4c2b-a4de-5219df7d3d49</t>
         </is>
       </c>
+      <c r="T259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -28550,6 +28621,7 @@
           <t>f83e971d-cbbc-41b5-9787-0fabc7b982be</t>
         </is>
       </c>
+      <c r="T260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -28647,6 +28719,7 @@
           <t>f83e971d-cbbc-41b5-9787-0fabc7b982be</t>
         </is>
       </c>
+      <c r="T261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -28744,6 +28817,7 @@
           <t>5789095d-20f6-422d-a7b9-3fac82a7bf09</t>
         </is>
       </c>
+      <c r="T262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -28841,6 +28915,7 @@
           <t>5789095d-20f6-422d-a7b9-3fac82a7bf09</t>
         </is>
       </c>
+      <c r="T263" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -28860,238 +28935,241 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="33" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="48" customWidth="1" min="4" max="4"/>
-    <col width="52" customWidth="1" min="5" max="5"/>
-    <col width="58" customWidth="1" min="6" max="6"/>
-    <col width="35" customWidth="1" min="7" max="7"/>
-    <col width="31" customWidth="1" min="8" max="8"/>
-    <col width="37" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="31" customWidth="1" min="11" max="11"/>
-    <col width="45" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="43" customWidth="1" min="14" max="14"/>
-    <col width="22" customWidth="1" min="15" max="15"/>
-    <col width="54" customWidth="1" min="16" max="16"/>
-    <col width="33" customWidth="1" min="17" max="17"/>
-    <col width="47" customWidth="1" min="18" max="18"/>
-    <col width="20" customWidth="1" min="19" max="19"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>analysis file.uuid</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>File name (Required)</t>
+          <t>FILE NAME (Required)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>File format (Required)</t>
+          <t>FILE FORMAT (Required)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Content description (Required)</t>
+          <t>CONTENT DESCRIPTION</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Content description ontology ID</t>
+          <t>CONTENT DESCRIPTION ONTOLOGY ID</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Content description ontology label</t>
+          <t>CONTENT DESCRIPTION ONTOLOGY LABEL</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>File source</t>
+          <t>FILE SOURCE</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Matrix cell count</t>
+          <t>MATRIX CELL COUNT</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Genome version (Required)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
+          <t>GENOME VERSION (Required)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>process.uuid</t>
+        </is>
+      </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Process ID</t>
+          <t>PROCESS ID (Required)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Protocol ID</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr"/>
+          <t>SEQUENCING PROTOCOL ID (Required)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>sequencing protocol.uuid</t>
+        </is>
+      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Protocol ID</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr"/>
+          <t>ANALYSIS PROTOCOL ID (Required)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>analysis protocol.uuid</t>
+        </is>
+      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Protocol ID</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr"/>
+          <t>LIBRARY PREPARATION PROTOCOL ID (Required)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>library preparation protocol.uuid</t>
+        </is>
+      </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Biomaterial ID</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr"/>
+          <t>CELL SUSPENSION ID (Required)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cell suspension.uuid</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
         <is>
           <t>The name of the file.</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>The format of the file.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>General description of the contents of the file.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>The source of the file. This is typically an organisation, repository, person or dedicated process.</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Number of cells analyzed in a matrix file.</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Name of the genome assembly used to generate this file.</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>A unique ID for the process.</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr"/>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>A unique ID for the biomaterial.</t>
         </is>
       </c>
-      <c r="S2" s="2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr"/>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Include the file extension in the file name. For example: R1.fastq.gz; codebook.json</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Indicate the full file extension including compression extensions. For example: fastq.gz; tif</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>For example: DNA sequence (raw); Sequence alignment</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>For example: data:3497; data:0863</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>For example: DNA sequence (raw); Sequence alignment</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Should be one of: DCP/2 Analysis, Contributor, ArrayExpress, HCA Release, GEO, SCEA, SCP, DCP/1 Matrix Service, LungMAP, Zenodo, Publication, DCP/2 Ingest For example: GEO; Contributor</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>If the analysis file is a matrix containing cells, enter the exact number of cells in the matrix. For example: 1; 2100</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Please use the name as defined in the Genome Reference Consortium (https://www.ncbi.nlm.nih.gov/grc) For example: Should be one of: GRCh38, GRCh37, GRCm39, GRCm38, GRCm37, Not Applicable</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
         </is>
       </c>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
         </is>
       </c>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr">
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="inlineStr"/>
-      <c r="R3" s="2" t="inlineStr"/>
-      <c r="S3" s="2" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -29190,12 +29268,30 @@
         </is>
       </c>
     </row>
-    <row r="5" customFormat="1" s="3">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -29330,6 +29426,7 @@
           <t>Publication</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>GRCh37</t>
@@ -29407,11 +29504,14 @@
           <t>TCR clonotypes</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>Publication</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>GRCh38</t>
@@ -29486,110 +29586,105 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="38" customWidth="1" min="2" max="2"/>
-    <col width="35" customWidth="1" min="3" max="3"/>
-    <col width="53" customWidth="1" min="4" max="4"/>
-    <col width="57" customWidth="1" min="5" max="5"/>
-    <col width="63" customWidth="1" min="6" max="6"/>
-    <col width="35" customWidth="1" min="7" max="7"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>supplementary file.uuid</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>File name (Required)</t>
+          <t>FILE NAME (Required)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>File format (Required)</t>
+          <t>FILE FORMAT (Required)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Content description (Required)</t>
+          <t>CONTENT DESCRIPTION</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Content description ontology ID</t>
+          <t>CONTENT DESCRIPTION ONTOLOGY ID</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Content description ontology label</t>
+          <t>CONTENT DESCRIPTION ONTOLOGY LABEL ONTOLOGY ID</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>File description</t>
+          <t>FILE DESCRIPTION</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
         <is>
           <t>The name of the file.</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>The format of the file.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>General description of the contents of the file.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>A short description of the file contents.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr"/>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Include the file extension in the file name. For example: R1.fastq.gz; codebook.json</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Indicate the full file extension including compression extensions. For example: fastq.gz; tif</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>For example: DNA sequence (raw); Sequence alignment</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>For example: data:3497; data:0863</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>For example: DNA sequence (raw); Sequence alignment</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>File description could include information about how the file was generated. For example: Protocol for FACS enrichment; Image of spleen sample collection location</t>
         </is>
@@ -29632,12 +29727,18 @@
         </is>
       </c>
     </row>
-    <row r="5" customFormat="1" s="3">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -29696,7 +29797,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Schemas</t>
         </is>
@@ -29818,44 +29919,31 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="32" customWidth="1" min="2" max="2"/>
-    <col width="31" customWidth="1" min="3" max="3"/>
-    <col width="28" customWidth="1" min="4" max="4"/>
-    <col width="28" customWidth="1" min="5" max="5"/>
-    <col width="29" customWidth="1" min="6" max="6"/>
-    <col width="26" customWidth="1" min="7" max="7"/>
-    <col width="46" customWidth="1" min="8" max="8"/>
-    <col width="38" customWidth="1" min="9" max="9"/>
-    <col width="42" customWidth="1" min="10" max="10"/>
-    <col width="48" customWidth="1" min="11" max="11"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Contact name (Required)</t>
+          <t>CONTACT NAME (Required)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Institute (Required)</t>
+          <t>INSTITUTE (Required)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Laboratory/Department</t>
+          <t>LABORATORY/DEPARTMENT</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Street address</t>
+          <t>STREET ADDRESS</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>COUNTRY</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -29865,139 +29953,139 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Email address</t>
+          <t>EMAIL ADDRESS</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Corresponding contributor</t>
+          <t>CORRESPONDING CONTRIBUTOR</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Contributor role (Required)</t>
+          <t>PROJECT ROLE</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Contributor role ontology ID</t>
+          <t>PROJECT ROLE ONTOLOGY ID</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Contributor role ontology label</t>
+          <t>PROJECT ROLE ONTOLOGY LABEL ONTOLOGY ID</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Name of individual who has contributed to the project.</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Name of primary institute where the individual works.</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Name of lab or department within the institute where the individual works.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Street address where the individual works.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Country where the individual works.</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The individual's ORCID ID linked to previous work.</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Email address for the individual.</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Whether the individual is a primary point of contact for the project.</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>The primary role of the contributor in the project.</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Enter in the format: first name,middle name or initial,last name. For example: John,D,Doe; Jane,,Smith</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>For example: EMBL-EBI; University of Washington</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>For example: Division of Vaccine Discovery; Department of Biology</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Include street name and number, city, country division, and postal code. For example: 0000 Main Street, Nowheretown, MA, 12091</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>For example: USA</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>For example: 0000-1111-2222-3333</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>For example: dummy@email.com</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>For example: Should be one of: yes, or no.</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>For example: principal investigator; experimental scientist</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>For example: EFO:0009736; EFO:0009741</t>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>For example: principal investigator; experimental scientist</t>
         </is>
@@ -30060,12 +30148,22 @@
         </is>
       </c>
     </row>
-    <row r="5" customFormat="1" s="3">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -30093,6 +30191,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -30120,6 +30224,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -30147,6 +30257,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -30179,6 +30295,11 @@
           <t>0000-0001-6545-3957</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -30206,6 +30327,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -30233,6 +30360,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -30260,6 +30393,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -30287,6 +30426,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -30314,6 +30459,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -30341,6 +30492,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -30368,6 +30525,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -30395,6 +30558,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -30422,6 +30591,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -30449,6 +30624,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -30476,6 +30657,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -30503,6 +30690,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -30530,6 +30723,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -30542,6 +30741,7 @@
           <t>Illumina</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
           <t>5200 Illumina Way, San Diego, CA 92122</t>
@@ -30552,6 +30752,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -30564,6 +30770,7 @@
           <t>Illumina</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
           <t>5200 Illumina Way, San Diego, CA 92122</t>
@@ -30574,6 +30781,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -30586,6 +30799,7 @@
           <t>Illumina</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
           <t>5200 Illumina Way, San Diego, CA 92122</t>
@@ -30596,6 +30810,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -30608,6 +30828,7 @@
           <t>Illumina</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>5200 Illumina Way, San Diego, CA 92122</t>
@@ -30618,6 +30839,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -30630,6 +30857,7 @@
           <t>Illumina</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
           <t>5200 Illumina Way, San Diego, CA 92122</t>
@@ -30640,6 +30868,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -30652,6 +30886,7 @@
           <t>Illumina</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
           <t>5200 Illumina Way, San Diego, CA 92122</t>
@@ -30662,6 +30897,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -30689,6 +30930,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -30716,6 +30963,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -30743,6 +30996,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -30770,6 +31029,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -30797,6 +31062,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -30824,6 +31095,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -30851,6 +31128,12 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -30878,6 +31161,7 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
           <t>cleslie@cbio.mskcc.org</t>
@@ -30888,6 +31172,9 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -30915,6 +31202,7 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
           <t>chant2@ccf.org</t>
@@ -30925,6 +31213,9 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -30952,6 +31243,7 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
           <t>hakimia@mskcc.org</t>
@@ -30962,6 +31254,9 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30974,16 +31269,20 @@
           <t>EMBL-EBI</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
           <t>idazucchi@ebi.ac.uk</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
           <t>data curator</t>
@@ -31018,106 +31317,98 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="28" customWidth="1" min="2" max="2"/>
-    <col width="24" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="24" customWidth="1" min="5" max="5"/>
-    <col width="45" customWidth="1" min="6" max="6"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Authors (Required)</t>
+          <t>AUTHORS (Required)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Publication title (Required)</t>
+          <t>PUBLICATION TITLE (Required)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Publication DOI</t>
+          <t>PUBLICATION DOI</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Publication PMID</t>
+          <t>PUBLICATION PMID</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Publication URL</t>
+          <t>PUBLICATION URL</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Official HCA Publication (Required)</t>
+          <t>Official HCA Publication</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>A list of authors associated with the publication.</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>The title of the publication.</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>The publication digital object identifier (doi) of the publication.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>The PubMed ID of the publication.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>A URL for the publication.</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Has the publication been accepted as an official HCA publication, according to the process described in https://www.humancellatlas.org/publications/ ?</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>List each author in 'surname initials' format. For example: Doe JD</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>For example: Study of single cells in the human body.</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>For example: 10.1016/j.cell.2016.07.054</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>For example: 27565351</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>For example: https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5667944/</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Should be one of: yes, or no. For example: yes; no</t>
         </is>
@@ -31155,12 +31446,17 @@
         </is>
       </c>
     </row>
-    <row r="5" customFormat="1" s="3">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -31212,42 +31508,38 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grant ID (Required)</t>
+          <t>GRANT ID (Required)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Funding organization (Required)</t>
+          <t>FUNDING ORGANIZATION (Required)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>The unique grant identifier or reference.</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>The name of the funding organization.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>For example: BB/P0000001/1</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>For example: Biotechnology and Biological Sciences Research Council (BBSRC); California Institute of Regenerative Medicine (CIRM)</t>
         </is>
@@ -31265,12 +31557,13 @@
         </is>
       </c>
     </row>
-    <row r="5" customFormat="1" s="3">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -31470,338 +31763,318 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="46" customWidth="1" min="2" max="2"/>
-    <col width="48" customWidth="1" min="3" max="3"/>
-    <col width="55" customWidth="1" min="4" max="4"/>
-    <col width="45" customWidth="1" min="5" max="5"/>
-    <col width="33" customWidth="1" min="6" max="6"/>
-    <col width="37" customWidth="1" min="7" max="7"/>
-    <col width="43" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
-    <col width="27" customWidth="1" min="11" max="11"/>
-    <col width="37" customWidth="1" min="12" max="12"/>
-    <col width="41" customWidth="1" min="13" max="13"/>
-    <col width="47" customWidth="1" min="14" max="14"/>
-    <col width="37" customWidth="1" min="15" max="15"/>
-    <col width="41" customWidth="1" min="16" max="16"/>
-    <col width="47" customWidth="1" min="17" max="17"/>
-    <col width="28" customWidth="1" min="18" max="18"/>
-    <col width="32" customWidth="1" min="19" max="19"/>
-    <col width="38" customWidth="1" min="20" max="20"/>
-    <col width="40" customWidth="1" min="21" max="21"/>
-    <col width="41" customWidth="1" min="22" max="22"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>donor organism.uuid</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Biomaterial ID (Required)</t>
+          <t>DONOR ORGANISM ID (Required)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Biomaterial name</t>
+          <t>DONOR ORGANISM NAME</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Biomaterial description</t>
+          <t>DONOR ORGANISM DESCRIPTION</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>NCBI taxon ID (Required)</t>
+          <t>NCBI TAXON ID (Required)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Species (Required)</t>
+          <t>GENUS SPECIES (Required)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Species ontology ID</t>
+          <t>GENUS SPECIES ONTOLOGY ID</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Species ontology label</t>
+          <t>GENUS SPECIES ONTOLOGY LABEL ONTOLOGY ID</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Biological sex (Required)</t>
+          <t>BIOLOGICAL SEX (Required)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Alive at collection (Required)</t>
+          <t>ALIVE AT COLLECTION (Required)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>AGE</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Time unit (Required)</t>
+          <t>AGE UNIT</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Time unit ontology ID</t>
+          <t>AGE UNIT ONTOLOGY ID</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Time unit ontology label</t>
+          <t>AGE UNIT ONTOLOGY LABEL ONTOLOGY ID</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Development stage (Required)</t>
+          <t>DEVELOPMENT STAGE (Required)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Development stage ontology ID</t>
+          <t>DEVELOPMENT STAGE ONTOLOGY ID</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Development stage ontology label</t>
+          <t>DEVELOPMENT STAGE ONTOLOGY LABEL ONTOLOGY ID</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Disease (Required)</t>
+          <t>KNOWN DISEASE(S)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Disease ontology ID</t>
+          <t>KNOWN DISEASE(S) ONTOLOGY ID</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Disease ontology label</t>
+          <t>KNOWN DISEASE(S) ONTOLOGY LABEL ONTOLOGY ID</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Treatments</t>
+          <t>TREATMENTS</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Medications</t>
+          <t>MEDICATIONS</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
         <is>
           <t>A unique ID for the biomaterial.</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>A short, descriptive name for the biomaterial that need not be unique.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A general description of the biomaterial.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>A taxonomy ID (taxonID) from NCBI.</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The name of the species to which the organism belongs.</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>The biological sex of the organism.</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Whether organism was alive at time of biomaterial collection.</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Age of organism in Age units measured since birth.</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>The name of a time unit being used.</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>The name of the development stage of the organism.</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>The text for the term as the user provides it.</t>
         </is>
       </c>
-      <c r="S2" s="2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="T2" s="2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
-      <c r="U2" s="2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>Treatments the individual has undergone prior to biomaterial collection.</t>
         </is>
       </c>
-      <c r="V2" s="2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>Medications the individual was taking at time of biomaterial collection.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr"/>
-      <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>For example: 9606</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>For example: Homo sapiens; Mus musculus</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>For example: NCBITaxon:9606; NCBITaxon:10090</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>For example: Homo sapiens; Mus musculus</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>For example: Should be one of: male, female, mixed, or unknown.</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Enter yes if organism was alive at time of biomaterial collection, no if organism was dead, unknown if not known, and not applicable for ex vivo embryo. For example: Should be one of: yes, no, not applicable, or unknown.</t>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Enter either a single value or a range of values. Indicate a range using a hyphen. For example: 20; 45-65</t>
         </is>
       </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>For example: second; week</t>
         </is>
       </c>
-      <c r="M3" s="2" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>For example: UO:0000010; UO:0000034</t>
         </is>
       </c>
-      <c r="N3" s="2" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>For example: second; week</t>
         </is>
       </c>
-      <c r="O3" s="2" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>For example: human adult stage; Theiler stage 28</t>
         </is>
       </c>
-      <c r="P3" s="2" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>For example: HsapDv:0000087; EFO:0002588</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>For example: human adult stage; Theiler stage 28</t>
         </is>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>For example: type 2 diabetes mellitus; normal</t>
         </is>
       </c>
-      <c r="S3" s="2" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>For example: MONDO:0005148; PATO:0000461; HP:0001397</t>
         </is>
       </c>
-      <c r="T3" s="2" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>For example: type 2 diabetes mellitus; normal</t>
         </is>
       </c>
-      <c r="U3" s="2" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>For example: Patient treated with antibiotics for a urinary tract infection; Patient treated with chemotherapy (Epirubicin, cisplatin, capecitabine) to treat stomach cancer</t>
         </is>
       </c>
-      <c r="V3" s="2" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>Enter the medication and dosage. Separate multiple medications with commas. For example: Naproxen 500mg/day; Citalopram 20mg/day</t>
         </is>
@@ -31919,12 +32192,33 @@
         </is>
       </c>
     </row>
-    <row r="5" customFormat="1" s="3">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -32032,6 +32326,7 @@
           <t>Patient underwent radical nephrectomy and was found to have stage III disease; The patient was eventually placed in a randomized adjuvant ICB vs placebo clinical trial</t>
         </is>
       </c>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -32139,6 +32434,7 @@
           <t>Patient underwent a cytoreductive nephrectomy and one dose of ipilumab/nivolumab but subsequently experienced rapid progression of disease and succumbed to disease 6 weeks following surgery.</t>
         </is>
       </c>
+      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -32606,282 +32902,275 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="27" customWidth="1" min="1" max="1"/>
-    <col width="54" customWidth="1" min="2" max="2"/>
-    <col width="56" customWidth="1" min="3" max="3"/>
-    <col width="63" customWidth="1" min="4" max="4"/>
-    <col width="53" customWidth="1" min="5" max="5"/>
-    <col width="41" customWidth="1" min="6" max="6"/>
-    <col width="45" customWidth="1" min="7" max="7"/>
-    <col width="51" customWidth="1" min="8" max="8"/>
-    <col width="33" customWidth="1" min="9" max="9"/>
-    <col width="37" customWidth="1" min="10" max="10"/>
-    <col width="43" customWidth="1" min="11" max="11"/>
-    <col width="36" customWidth="1" min="12" max="12"/>
-    <col width="40" customWidth="1" min="13" max="13"/>
-    <col width="46" customWidth="1" min="14" max="14"/>
-    <col width="63" customWidth="1" min="15" max="15"/>
-    <col width="12" customWidth="1" min="16" max="16"/>
-    <col width="31" customWidth="1" min="17" max="17"/>
-    <col width="45" customWidth="1" min="18" max="18"/>
-    <col width="24" customWidth="1" min="19" max="19"/>
-    <col width="46" customWidth="1" min="20" max="20"/>
-    <col width="19" customWidth="1" min="21" max="21"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>specimen from organism.uuid</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Biomaterial ID (Required)</t>
+          <t>SPECIMEN FROM ORGANISM ID (Required)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Biomaterial name</t>
+          <t>SPECIMEN FROM ORGANISM NAME</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Biomaterial description</t>
+          <t>SPECIMEN FROM ORGANISM DESCRIPTION</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>NCBI taxon ID (Required)</t>
+          <t>NCBI TAXON ID (Required)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Species (Required)</t>
+          <t>GENUS SPECIES (Required)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Species ontology ID</t>
+          <t>GENUS SPECIES ONTOLOGY ID</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Species ontology label</t>
+          <t>GENUS SPECIES ONTOLOGY LABEL ONTOLOGY ID</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Organ (Required)</t>
+          <t>ORGAN (Required)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Organ ontology ID</t>
+          <t>ORGAN ONTOLOGY ID</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Organ ontology label</t>
+          <t>ORGAN ONTOLOGY LABEL ONTOLOGY ID</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Disease (Required)</t>
+          <t>KNOWN DISEASE(S)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Disease ontology ID</t>
+          <t>KNOWN DISEASE(S) ONTOLOGY ID</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Disease ontology label</t>
+          <t>KNOWN DISEASE(S) ONTOLOGY LABEL ONTOLOGY ID</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Preservation method</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr"/>
+          <t>PRESERVATION METHOD</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>process.uuid</t>
+        </is>
+      </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Process ID</t>
+          <t>PROCESS ID (Required)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Protocol ID</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr"/>
+          <t>COLLECTION PROTOCOL ID (Required)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>collection protocol.uuid</t>
+        </is>
+      </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Biomaterial ID</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr"/>
+          <t>INPUT DONOR ORGANISM ID (Required)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>donor organism.uuid</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
         <is>
           <t>A unique ID for the biomaterial.</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>A short, descriptive name for the biomaterial that need not be unique.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A general description of the biomaterial.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>A taxonomy ID (taxonID) from NCBI.</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The name of the species to which the organism belongs.</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>The text for the term as the user provides it.</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>The text for the term as the user provides it.</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>The method by which a biomaterial was preserved through the use of chemicals, cold, or other means to prevent or retard biological or physical deterioration.</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>A unique ID for the process.</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
         </is>
       </c>
-      <c r="S2" s="2" t="inlineStr"/>
-      <c r="T2" s="2" t="inlineStr">
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
         <is>
           <t>A unique ID for the biomaterial.</t>
         </is>
       </c>
-      <c r="U2" s="2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr"/>
-      <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>For example: 9606</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>For example: Homo sapiens; Mus musculus</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>For example: NCBITaxon:9606; NCBITaxon:10090</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>For example: Homo sapiens; Mus musculus</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>For example: heart; immune system</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>For example: UBERON:0000948; UBERON:0002405</t>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>For example: heart; immune system</t>
         </is>
       </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>For example: type 2 diabetes mellitus; normal</t>
         </is>
       </c>
-      <c r="M3" s="2" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>For example: MONDO:0005148; PATO:0000461; HP:0001397</t>
         </is>
       </c>
-      <c r="N3" s="2" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>For example: type 2 diabetes mellitus; normal</t>
         </is>
       </c>
-      <c r="O3" s="2" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Enter 'fresh' if not preserved. For example: cryopreservation in liquid nitrogen (dead tissue); fresh</t>
         </is>
       </c>
-      <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr"/>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
         </is>
       </c>
-      <c r="S3" s="2" t="inlineStr"/>
-      <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -32990,12 +33279,32 @@
         </is>
       </c>
     </row>
-    <row r="5" customFormat="1" s="3">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -36118,298 +36427,293 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="47" customWidth="1" min="2" max="2"/>
-    <col width="49" customWidth="1" min="3" max="3"/>
-    <col width="56" customWidth="1" min="4" max="4"/>
-    <col width="46" customWidth="1" min="5" max="5"/>
-    <col width="53" customWidth="1" min="6" max="6"/>
-    <col width="55" customWidth="1" min="7" max="7"/>
-    <col width="53" customWidth="1" min="8" max="8"/>
-    <col width="53" customWidth="1" min="9" max="9"/>
-    <col width="34" customWidth="1" min="10" max="10"/>
-    <col width="38" customWidth="1" min="11" max="11"/>
-    <col width="44" customWidth="1" min="12" max="12"/>
-    <col width="12" customWidth="1" min="13" max="13"/>
-    <col width="31" customWidth="1" min="14" max="14"/>
-    <col width="45" customWidth="1" min="15" max="15"/>
-    <col width="24" customWidth="1" min="16" max="16"/>
-    <col width="47" customWidth="1" min="17" max="17"/>
-    <col width="26" customWidth="1" min="18" max="18"/>
-    <col width="54" customWidth="1" min="19" max="19"/>
-    <col width="27" customWidth="1" min="20" max="20"/>
-    <col width="40" customWidth="1" min="21" max="21"/>
-    <col width="44" customWidth="1" min="22" max="22"/>
-    <col width="50" customWidth="1" min="23" max="23"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>cell suspension.uuid</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Biomaterial ID (Required)</t>
+          <t>CELL SUSPENSION ID (Required)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Biomaterial name</t>
+          <t>CELL SUSPENSION NAME</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Biomaterial description</t>
+          <t>CELL SUSPENSION DESCRIPTION</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>NCBI taxon ID (Required)</t>
+          <t>NCBI TAXON ID (Required)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>BioSamples accession</t>
+          <t>BIOSAMPLES ACCESSION</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>INSDC sample accession</t>
+          <t>INSDC SAMPLE ACCESSION</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Cell viability method</t>
+          <t>CELL VIABILITY METHOD</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Cell viability result</t>
+          <t>CELL VIABILITY RESULT</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Species (Required)</t>
+          <t>GENUS SPECIES (Required)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Species ontology ID</t>
+          <t>GENUS SPECIES ONTOLOGY ID</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Species ontology label</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr"/>
+          <t>GENUS SPECIES ONTOLOGY LABEL ONTOLOGY ID</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>process.uuid</t>
+        </is>
+      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Process ID</t>
+          <t>PROCESS ID (Required)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Protocol ID</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr"/>
+          <t>ENRICHMENT PROTOCOL ID (Required)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>enrichment protocol.uuid</t>
+        </is>
+      </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Protocol ID</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr"/>
+          <t>DISSOCIATION PROTOCOL ID (Required)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>dissociation protocol.uuid</t>
+        </is>
+      </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Biomaterial ID</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr"/>
+          <t>INPUT SPECIMEN FROM ORGANISM ID (Required)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>specimen from organism.uuid</t>
+        </is>
+      </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Cell type (Required)</t>
+          <t>SELECTED CELL TYPE(S)</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Cell type ontology ID</t>
+          <t>SELECTED CELL TYPE(S) ONTOLOGY ID</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Cell type ontology label</t>
+          <t>SELECTED CELL TYPE(S) ONTOLOGY LABEL ONTOLOGY ID</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
         <is>
           <t>A unique ID for the biomaterial.</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>A short, descriptive name for the biomaterial that need not be unique.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A general description of the biomaterial.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>A taxonomy ID (taxonID) from NCBI.</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>A BioSamples accession.</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>An International Nucleotide Sequence Database Collaboration (INSDC) sample accession.</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>The method by which cell viability was determined.</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Result of the cell viability test.</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>The name of the species to which the organism belongs.</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
         <is>
           <t>A unique ID for the process.</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr"/>
-      <c r="S2" s="2" t="inlineStr">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
         <is>
           <t>A unique ID for the biomaterial.</t>
         </is>
       </c>
-      <c r="T2" s="2" t="inlineStr"/>
-      <c r="U2" s="2" t="inlineStr">
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
         <is>
           <t>The name of a cell type supplied by a user.</t>
         </is>
       </c>
-      <c r="V2" s="2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="W2" s="2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr"/>
-      <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>For example: 9606</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Enter accession if sample has been archived. Accession can be from the DDBJ, NCBI, or EMBL-EBI and must start with SAMD, SAMN, or SAME, respectively. For example: SAMN00000000</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Enter accession if sample has been archived. Accession can be from the DDBJ, NCBI, or EMBL-EBI and must start with DRS, SRS, or ERS, respecitvely. For example: SRS0000000</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>For example: Fluorescein diacetate hydrolysis; ATP test</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>For example: Should be one of: pass, fail</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>For example: Homo sapiens; Mus musculus</t>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>For example: NCBITaxon:9606; NCBITaxon:10090</t>
         </is>
       </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>For example: Homo sapiens; Mus musculus</t>
         </is>
       </c>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
         </is>
       </c>
-      <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr">
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
         </is>
       </c>
-      <c r="R3" s="2" t="inlineStr"/>
-      <c r="S3" s="2" t="inlineStr"/>
-      <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="inlineStr">
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
         <is>
           <t>For example: bone marrow hematopoietic cell; cardiac muscle cell</t>
         </is>
       </c>
-      <c r="V3" s="2" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>For example: CL:1001610; CL:0000746</t>
         </is>
       </c>
-      <c r="W3" s="2" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>For example: bone marrow hematopoietic cell; cardiac muscle cell</t>
         </is>
@@ -36532,12 +36836,34 @@
         </is>
       </c>
     </row>
-    <row r="5" customFormat="1" s="3">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -36640,6 +36966,9 @@
           <t>610eb6f6-635f-4233-9b9b-9bd2bd10f9c9</t>
         </is>
       </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -36742,6 +37071,9 @@
           <t>ce06e491-e830-47cb-8aa9-b2b5c3007378</t>
         </is>
       </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -36844,6 +37176,9 @@
           <t>4306d1bd-1870-4bf0-95c7-71e5d7c04157</t>
         </is>
       </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -36946,6 +37281,9 @@
           <t>70e1dd0e-ba73-4d87-8f6a-93677836a3f8</t>
         </is>
       </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -37028,6 +37366,8 @@
           <t>72d62028-d91e-4d2a-a284-36d99bf49f64</t>
         </is>
       </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
           <t>IpiNivo_Complete_PBMC</t>
@@ -37155,6 +37495,9 @@
           <t>f397582d-8439-497a-a67f-8d7dcd60c5b9</t>
         </is>
       </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -37257,6 +37600,9 @@
           <t>4f52c138-506a-431b-8da4-964a142744e0</t>
         </is>
       </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -37359,6 +37705,9 @@
           <t>0ef8089e-11d0-48f3-9d1f-0c699c2d64af</t>
         </is>
       </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -37461,6 +37810,9 @@
           <t>ff7e41d2-1ad8-4db5-a283-176b49f0a5da</t>
         </is>
       </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -37543,6 +37895,8 @@
           <t>72d62028-d91e-4d2a-a284-36d99bf49f64</t>
         </is>
       </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr">
         <is>
           <t>IpiNivo_Mixed_PBMC</t>
@@ -37670,6 +38024,9 @@
           <t>1fbf2e67-95fb-47bc-be2d-96359ec3de7c</t>
         </is>
       </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -37772,6 +38129,9 @@
           <t>6d0827e6-7501-4511-a6d7-05451b3fbae5</t>
         </is>
       </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -37874,6 +38234,9 @@
           <t>36ee6a24-fb43-40b6-806e-3b48cedbf002</t>
         </is>
       </c>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -37976,6 +38339,9 @@
           <t>bb92ba33-c29b-4475-a784-1c9cf618b8e5</t>
         </is>
       </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -38078,6 +38444,9 @@
           <t>21868f89-2a5e-4de8-9a6b-b152100f74dd</t>
         </is>
       </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -38160,6 +38529,8 @@
           <t>72d62028-d91e-4d2a-a284-36d99bf49f64</t>
         </is>
       </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
           <t>IpiNivo_Resistant_PBMC</t>
@@ -38287,6 +38658,9 @@
           <t>8e016b78-354f-4a95-b562-7499bf797f87</t>
         </is>
       </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -38389,6 +38763,9 @@
           <t>ae5c1b86-fa9d-4afa-937b-5dc290af733b</t>
         </is>
       </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -38491,6 +38868,9 @@
           <t>8bf6b2a6-845d-486c-b55a-a15134ad66ff</t>
         </is>
       </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -38593,6 +38973,9 @@
           <t>c2a3f4bb-b79e-453c-82b3-0d1fa646db72</t>
         </is>
       </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -38695,6 +39078,9 @@
           <t>fae2c825-209c-4dbe-980a-e7e6017ead9b</t>
         </is>
       </c>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -38777,6 +39163,8 @@
           <t>72d62028-d91e-4d2a-a284-36d99bf49f64</t>
         </is>
       </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
           <t>NivoExposed_PBMC</t>
@@ -38904,6 +39292,9 @@
           <t>cefd4390-098e-42ba-a9ba-38a6fe92d6f5</t>
         </is>
       </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -39006,6 +39397,9 @@
           <t>aeb24f77-3153-43d0-9796-185c97654ee6</t>
         </is>
       </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -39108,6 +39502,9 @@
           <t>e9928d55-d01b-498e-9f98-1ec6fbb34e1b</t>
         </is>
       </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -39210,6 +39607,9 @@
           <t>0b3c18b3-b661-4d2e-9e37-f56002c52b01</t>
         </is>
       </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -39312,6 +39712,9 @@
           <t>ca957d19-a8a0-49ed-b6bd-1bfebce5af42</t>
         </is>
       </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -39414,6 +39817,9 @@
           <t>935e14b4-bd51-49bb-aeb8-8ae8184af797</t>
         </is>
       </c>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -39516,6 +39922,9 @@
           <t>0a4b866f-1986-4453-84e0-c6e59f61d15a</t>
         </is>
       </c>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -39535,102 +39944,97 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-    <col width="47" customWidth="1" min="3" max="3"/>
-    <col width="54" customWidth="1" min="4" max="4"/>
-    <col width="31" customWidth="1" min="5" max="5"/>
-    <col width="35" customWidth="1" min="6" max="6"/>
-    <col width="41" customWidth="1" min="7" max="7"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>collection protocol.uuid</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Protocol ID (Required)</t>
+          <t>COLLECTION PROTOCOL ID (Required)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Protocol name</t>
+          <t>COLLECTION PROTOCOL NAME</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Protocol description</t>
+          <t>COLLECTION PROTOCOL DESCRIPTION</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Process type (Required)</t>
+          <t>COLLECTION METHOD (Required)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Process type ontology ID</t>
+          <t>COLLECTION METHOD ONTOLOGY ID</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Process type ontology label</t>
+          <t>COLLECTION METHOD ONTOLOGY LABEL ONTOLOGY ID</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>A short name for the protocol.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A general description of the protocol.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>The name of a process type being used.</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr"/>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>For example: enzymatic dissociation; blood draw</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>For example: EFO:0009128; EFO:0009121</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>For example: enzymatic dissociation; blood draw</t>
         </is>
@@ -39673,12 +40077,18 @@
         </is>
       </c>
     </row>
-    <row r="5" customFormat="1" s="3">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -39809,102 +40219,97 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="26" customWidth="1" min="1" max="1"/>
-    <col width="47" customWidth="1" min="2" max="2"/>
-    <col width="49" customWidth="1" min="3" max="3"/>
-    <col width="56" customWidth="1" min="4" max="4"/>
-    <col width="33" customWidth="1" min="5" max="5"/>
-    <col width="37" customWidth="1" min="6" max="6"/>
-    <col width="43" customWidth="1" min="7" max="7"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>dissociation protocol.uuid</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Protocol ID (Required)</t>
+          <t>DISSOCIATION PROTOCOL ID (Required)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Protocol name</t>
+          <t>DISSOCIATION PROTOCOL NAME</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Protocol description</t>
+          <t>DISSOCIATION PROTOCOL DESCRIPTION</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Process type (Required)</t>
+          <t>DISSOCIATION METHOD (Required)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Process type ontology ID</t>
+          <t>DISSOCIATION METHOD ONTOLOGY ID</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Process type ontology label</t>
+          <t>DISSOCIATION METHOD ONTOLOGY LABEL ONTOLOGY ID</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>A short name for the protocol.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A general description of the protocol.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>The name of a process type being used.</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>An ontology term identifier in the form prefix:accession.</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr"/>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>For example: enzymatic dissociation; blood draw</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>For example: EFO:0009128; EFO:0009121</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>For example: enzymatic dissociation; blood draw</t>
         </is>
@@ -39947,12 +40352,18 @@
         </is>
       </c>
     </row>
-    <row r="5" customFormat="1" s="3">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
